--- a/biology/Botanique/IR8/IR8.xlsx
+++ b/biology/Botanique/IR8/IR8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'IR8 est une variété cultivée de riz sélectionnée par l'Institut international de recherche sur le riz (IRRI) en 1966[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'IR8 est une variété cultivée de riz sélectionnée par l'Institut international de recherche sur le riz (IRRI) en 1966.
 On considère que cette variété, surnommée par la suite « riz miracle », a permis d'éviter la famine et qu'elle nourrit aujourd'hui des milliards de personnes.
-La variété IR8 est issue d'un croisement réalisé en 1962 par Peter Jennings entre une variété chinoise naine, 'Dee-geo-woo-gen' (DGWG) et une variété indonésienne haute, 'Peta', dont il obtint 160 graines qui sont à l'origine d'un processus fascinant. Ce croisement était le huitième d'une série de 38 croisement entre diverses variétés réalisés alors à l'IRRI, d'où son nom de 'IR8'[2]. 
+La variété IR8 est issue d'un croisement réalisé en 1962 par Peter Jennings entre une variété chinoise naine, 'Dee-geo-woo-gen' (DGWG) et une variété indonésienne haute, 'Peta', dont il obtint 160 graines qui sont à l'origine d'un processus fascinant. Ce croisement était le huitième d'une série de 38 croisement entre diverses variétés réalisés alors à l'IRRI, d'où son nom de 'IR8'. 
 </t>
         </is>
       </c>
